--- a/reward-graph-curve-fitter.xlsx
+++ b/reward-graph-curve-fitter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\repos\deep-racer-rewards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.d.srinivas\Desktop\repos\Personal\deepracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1792CF23-2F20-46D8-BAE9-21EDC78C0268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982808BF-7543-4D79-AE45-A8AED5A0EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9E4E61E1-599E-4A85-97CA-52F2C3418F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4E61E1-599E-4A85-97CA-52F2C3418F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Speed</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Steering Angle</t>
   </si>
 </sst>
 </file>
@@ -396,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9AF17-2F82-47FD-BCB9-3B557DA993B6}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B18"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.5</v>
       </c>
@@ -445,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -475,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -505,7 +511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -535,7 +541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
@@ -550,7 +556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -565,7 +571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>3</v>
       </c>
@@ -577,7 +583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>2</v>
       </c>
@@ -592,7 +598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1</v>
       </c>
@@ -607,7 +613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>0</v>
       </c>
@@ -615,12 +621,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>17/2</f>
         <v>8.5</v>
@@ -629,52 +635,97 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1.5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>37</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <v>1600</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/reward-graph-curve-fitter.xlsx
+++ b/reward-graph-curve-fitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.d.srinivas\Desktop\repos\Personal\deepracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982808BF-7543-4D79-AE45-A8AED5A0EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55327BAC-1463-432C-AAE9-DC4515982C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4E61E1-599E-4A85-97CA-52F2C3418F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Speed</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Steering Angle</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9AF17-2F82-47FD-BCB9-3B557DA993B6}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="A28" sqref="A28:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +731,51 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.05</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
